--- a/装修报价.xlsx
+++ b/装修报价.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="15390" windowHeight="6975"/>
@@ -11,12 +11,12 @@
     <sheet name="开关，断路器" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
   <si>
     <t>木材：</t>
   </si>
@@ -105,198 +105,235 @@
     <t>门锁，五金件</t>
   </si>
   <si>
+    <t>玻璃，镜子</t>
+  </si>
+  <si>
+    <t>墙纸</t>
+  </si>
+  <si>
+    <t>人工费</t>
+  </si>
+  <si>
+    <t>敲砖，垃圾清运</t>
+  </si>
+  <si>
+    <t>力资费</t>
+  </si>
+  <si>
+    <t>木工费（90x250）</t>
+  </si>
+  <si>
+    <t>水电工</t>
+  </si>
+  <si>
+    <t>瓦工（80x300）</t>
+  </si>
+  <si>
+    <t>油漆工（60x230）</t>
+  </si>
+  <si>
+    <t>地板</t>
+  </si>
+  <si>
+    <t>中央空调</t>
+  </si>
+  <si>
+    <t>热水器</t>
+  </si>
+  <si>
+    <t>洁具（花洒+龙头）</t>
+  </si>
+  <si>
+    <t>马桶（2座）</t>
+  </si>
+  <si>
+    <t>杜拉维特215701</t>
+  </si>
+  <si>
+    <t>台下盆</t>
+  </si>
+  <si>
+    <t>杜拉维特030549斯达克3</t>
+  </si>
+  <si>
+    <t>杜拉维特046651</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>厨房水槽+水龙头</t>
+  </si>
+  <si>
+    <t>福兰特29715+8003</t>
+  </si>
+  <si>
+    <t>马桶辅助材料+安装费</t>
+  </si>
+  <si>
+    <t>施耐德商城</t>
+  </si>
+  <si>
+    <t>施耐德天猫</t>
+  </si>
+  <si>
+    <t>丰尚香槟金</t>
+  </si>
+  <si>
+    <t>天翼36回路强电箱</t>
+  </si>
+  <si>
+    <t>天猫</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>带荧光指示三联双控开关</t>
+  </si>
+  <si>
+    <t>丰尚香槟金，16AX 250V</t>
+  </si>
+  <si>
+    <t>带荧光指示单联单控开关</t>
+  </si>
+  <si>
+    <t>带开关带保护门三极扁脚插座</t>
+  </si>
+  <si>
+    <t>丰尚香槟金，10A 250V</t>
+  </si>
+  <si>
+    <t>带荧光指示四联单控开关</t>
+  </si>
+  <si>
+    <t>丰尚香槟金，10AX 250V</t>
+  </si>
+  <si>
+    <t>带荧光指示单联双控开关</t>
+  </si>
+  <si>
+    <t>带荧光指示三联单控开关</t>
+  </si>
+  <si>
+    <t>带荧光指示双联双控开关</t>
+  </si>
+  <si>
+    <t>带荧光指示双联单控开关</t>
+  </si>
+  <si>
+    <t>丰尚香槟金，16A 250V</t>
+  </si>
+  <si>
+    <t>单联电视+带保护门超五类信息插座</t>
+  </si>
+  <si>
+    <t>带荧光指示四联双控开关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丰尚香槟金，10AX 250V </t>
+  </si>
+  <si>
+    <t>带开关带保护门二/三极插座</t>
+  </si>
+  <si>
+    <t>带保护门超五类信息插座</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA9AN 小型断路器 </t>
+  </si>
+  <si>
+    <t>4P C63A</t>
+  </si>
+  <si>
+    <t>3P C63A</t>
+  </si>
+  <si>
+    <t>EA9R 漏电保护断路器2P</t>
+  </si>
+  <si>
+    <t>C32A/30mA/AC类</t>
+  </si>
+  <si>
+    <t>施耐德断路器 C65漏电保护器 空气开关空开 vigi 4P63AELE电子式</t>
+  </si>
+  <si>
+    <t>36回路强电箱</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>E9小型断路器 空气开关单极空开 1PC20A EA9AN1C20</t>
+  </si>
+  <si>
+    <t>付款</t>
+  </si>
+  <si>
+    <t>爸</t>
+  </si>
+  <si>
+    <t>三相电改造（配电箱）</t>
+  </si>
+  <si>
+    <t>防水材料</t>
+  </si>
+  <si>
     <t>耗材（含各种钉子，胶水，玻璃胶，填缝剂等零星费用）</t>
-  </si>
-  <si>
-    <t>玻璃，镜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门智能锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯迪士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>墙纸</t>
-  </si>
-  <si>
-    <t>人工费</t>
-  </si>
-  <si>
-    <t>敲砖，垃圾清运</t>
-  </si>
-  <si>
-    <t>力资费</t>
-  </si>
-  <si>
-    <t>木工费（90x250）</t>
-  </si>
-  <si>
-    <t>水电工</t>
-  </si>
-  <si>
-    <t>瓦工（80x300）</t>
-  </si>
-  <si>
-    <t>油漆工（60x230）</t>
-  </si>
-  <si>
-    <t>地板</t>
-  </si>
-  <si>
-    <t>中央空调</t>
-  </si>
-  <si>
-    <t>热水器</t>
-  </si>
-  <si>
-    <t>洁具（花洒+龙头）</t>
-  </si>
-  <si>
-    <t>马桶（2座）</t>
-  </si>
-  <si>
-    <t>杜拉维特215701</t>
-  </si>
-  <si>
-    <t>台下盆</t>
-  </si>
-  <si>
-    <t>杜拉维特030549斯达克3</t>
-  </si>
-  <si>
-    <t>杜拉维特046651</t>
-  </si>
-  <si>
-    <t>卫生间</t>
-  </si>
-  <si>
-    <t>厨房</t>
-  </si>
-  <si>
-    <t>厨房水槽+水龙头</t>
-  </si>
-  <si>
-    <t>福兰特29715+8003</t>
-  </si>
-  <si>
-    <t>马桶辅助材料+安装费</t>
-  </si>
-  <si>
-    <t>施耐德商城</t>
-  </si>
-  <si>
-    <t>施耐德天猫</t>
-  </si>
-  <si>
-    <t>丰尚香槟金</t>
-  </si>
-  <si>
-    <t>天翼36回路强电箱</t>
-  </si>
-  <si>
-    <t>天猫</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>带荧光指示三联双控开关</t>
-  </si>
-  <si>
-    <t>丰尚香槟金，16AX 250V</t>
-  </si>
-  <si>
-    <t>带荧光指示单联单控开关</t>
-  </si>
-  <si>
-    <t>带开关带保护门三极扁脚插座</t>
-  </si>
-  <si>
-    <t>丰尚香槟金，10A 250V</t>
-  </si>
-  <si>
-    <t>带荧光指示四联单控开关</t>
-  </si>
-  <si>
-    <t>丰尚香槟金，10AX 250V</t>
-  </si>
-  <si>
-    <t>带荧光指示单联双控开关</t>
-  </si>
-  <si>
-    <t>带荧光指示三联单控开关</t>
-  </si>
-  <si>
-    <t>带荧光指示双联双控开关</t>
-  </si>
-  <si>
-    <t>带荧光指示双联单控开关</t>
-  </si>
-  <si>
-    <t>丰尚香槟金，16A 250V</t>
-  </si>
-  <si>
-    <t>单联电视+带保护门超五类信息插座</t>
-  </si>
-  <si>
-    <t>带荧光指示四联双控开关</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丰尚香槟金，10AX 250V </t>
-  </si>
-  <si>
-    <t>带开关带保护门二/三极插座</t>
-  </si>
-  <si>
-    <t>带保护门超五类信息插座</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA9AN 小型断路器 </t>
-  </si>
-  <si>
-    <t>4P C63A</t>
-  </si>
-  <si>
-    <t>3P C63A</t>
-  </si>
-  <si>
-    <t>EA9R 漏电保护断路器2P</t>
-  </si>
-  <si>
-    <t>C32A/30mA/AC类</t>
-  </si>
-  <si>
-    <t>施耐德断路器 C65漏电保护器 空气开关空开 vigi 4P63AELE电子式</t>
-  </si>
-  <si>
-    <t>36回路强电箱</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>E9小型断路器 空气开关单极空开 1PC20A EA9AN1C20</t>
-  </si>
-  <si>
-    <t>付款</t>
-  </si>
-  <si>
-    <t>爸</t>
-  </si>
-  <si>
-    <t>三相电改造（配电箱）</t>
-  </si>
-  <si>
-    <t>防水材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,43 +371,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -393,11 +393,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -406,25 +443,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -437,7 +471,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -729,24 +763,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
@@ -763,11 +797,11 @@
         <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -783,14 +817,14 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>18000</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3"/>
@@ -799,22 +833,22 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3">
         <v>4000</v>
       </c>
@@ -827,10 +861,10 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1">
         <v>12000</v>
       </c>
@@ -841,10 +875,10 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1">
         <v>9000</v>
       </c>
@@ -855,10 +889,10 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1">
         <v>15000</v>
       </c>
@@ -869,14 +903,14 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1">
         <v>13000</v>
       </c>
@@ -887,10 +921,10 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1">
         <v>3500</v>
       </c>
@@ -905,10 +939,10 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1">
@@ -924,15 +958,15 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="12"/>
-      <c r="B12" s="4" t="s">
-        <v>50</v>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="1">
         <v>1700</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
         <v>1700</v>
@@ -941,10 +975,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1">
         <v>12000</v>
       </c>
@@ -957,10 +991,10 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1">
         <v>10000</v>
       </c>
@@ -973,10 +1007,10 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1">
         <v>5000</v>
       </c>
@@ -987,10 +1021,10 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1">
         <v>8000</v>
       </c>
@@ -1001,11 +1035,11 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
-        <v>48</v>
+      <c r="A17" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1">
         <v>13000</v>
@@ -1019,16 +1053,16 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="11"/>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
+      <c r="A18" s="13"/>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="1">
         <v>5600</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1">
         <v>5600</v>
@@ -1037,16 +1071,16 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1">
         <v>680</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1">
         <v>680</v>
@@ -1055,16 +1089,16 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11"/>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
+      <c r="A20" s="13"/>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="1">
         <v>450</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1">
         <v>450</v>
@@ -1074,25 +1108,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="12"/>
-      <c r="B21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6">
         <v>250</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>250</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1">
         <v>6000</v>
       </c>
@@ -1103,10 +1137,10 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1">
         <v>5000</v>
       </c>
@@ -1117,10 +1151,10 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="10"/>
       <c r="C24" s="1">
         <v>1500</v>
       </c>
@@ -1131,10 +1165,10 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="9"/>
+      <c r="A25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="1">
         <v>2500</v>
       </c>
@@ -1145,24 +1179,24 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="9"/>
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="1">
         <v>800</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="9"/>
+      <c r="A27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="1">
         <v>6000</v>
       </c>
@@ -1173,11 +1207,11 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C28" s="1">
         <v>3500</v>
@@ -1189,9 +1223,9 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="11"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1">
         <v>2000</v>
@@ -1203,9 +1237,9 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="11"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1">
         <v>22500</v>
@@ -1217,9 +1251,9 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
         <v>13800</v>
@@ -1231,9 +1265,9 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="11"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <v>6000</v>
@@ -1247,7 +1281,7 @@
     <row r="33" spans="1:8">
       <c r="A33" s="12"/>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
         <v>24000</v>
@@ -1259,10 +1293,10 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="8"/>
+      <c r="A34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1271,10 +1305,10 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="8"/>
+      <c r="A35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="9"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1285,10 +1319,10 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="8"/>
+      <c r="A36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="9"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1297,10 +1331,10 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="14"/>
+      <c r="A37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="8"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1309,63 +1343,132 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="8"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1000</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1">
+      <c r="A39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1880</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2900</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5800</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
         <f>SUM(C2:C33)</f>
         <v>246280</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="32">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="F26:G26"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A28:A33"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1379,12 +1482,12 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1392,13 +1495,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -1406,13 +1509,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>420</v>
@@ -1420,7 +1523,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>33.21</v>
@@ -1429,12 +1532,12 @@
         <v>48.34</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>14.95</v>
@@ -1443,166 +1546,166 @@
         <v>21.8</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>20.72</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>36.46</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>18.98</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>26.43</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>24.98</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>20.440000000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>30.63</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>81.87</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>45.25</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>25.42</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>50.4</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <v>168.5</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17">
         <v>125.1</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18">
         <v>142.6</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19">
         <v>227</v>
@@ -1610,7 +1713,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <v>18.100000000000001</v>
@@ -1620,6 +1723,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1633,10 +1737,10 @@
       <selection activeCell="C1" sqref="A1:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1644,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
@@ -1652,7 +1756,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1660,138 +1764,139 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
         <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
         <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>